--- a/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T16:50:11-04:00</t>
+    <t>2024-06-03T10:40:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:40:28-04:00</t>
+    <t>2024-06-03T17:44:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -977,480 +977,192 @@
     <t>Organization.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/cl-address}
+</t>
+  </si>
+  <si>
+    <t>Tipo de dato para agragar la dirección de un paciente</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Variable dirección</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contacto de la Organización para ciertos propósitos</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>El tipo de contacto</t>
+  </si>
+  <si>
+    <t>El propósito mediante el cual el contacto puede ser alcanzado</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>Códigos del propósito del contacto, HL7 FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>Nombre asociado al contacto</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Detalles de contacto de la Organización</t>
+  </si>
+  <si>
+    <t>Detalles del contacto de la Organización comunmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.system</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.value</t>
+  </si>
+  <si>
+    <t>Dato del contato del paciente descrito</t>
+  </si>
+  <si>
+    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile</t>
+  </si>
+  <si>
+    <t>Propósito para el contacto que se ha definido</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.rank</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.period</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Address
 </t>
-  </si>
-  <si>
-    <t>Dirección de la Localiación</t>
-  </si>
-  <si>
-    <t>Se definirá la dirección en una línea y se podría codificar en city la comuna, en district la provincia y en state la región</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.address.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>Organization.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Organization.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Organization.address.line</t>
-  </si>
-  <si>
-    <t>Calle o avenida, numero y casa o depto</t>
-  </si>
-  <si>
-    <t>Aquí se escribe toda la dirección completa</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>Organization.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Campo para Comuna de residencia</t>
-  </si>
-  <si>
-    <t>Campo para Comuna de residencia. Se usa el valueSet de códigos de comunas definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Códigos Comuna, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosComunaCL</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Organization.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>Campo para Provincia de Residencia</t>
-  </si>
-  <si>
-    <t>Campo para Provincia de Residencia. Se usa el valueSet de códigos de provicias definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Códigos Provincia, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosProvinciasCL</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Organization.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Campo para la Región</t>
-  </si>
-  <si>
-    <t>Campo Región. Se usa el valueSet de códigos de regiones definidos a nivel naciona.</t>
-  </si>
-  <si>
-    <t>Códigos Regiones, Ministerio del Interior, 2018</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosRegionesCL</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Region</t>
-  </si>
-  <si>
-    <t>Organization.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>Organization.address.country</t>
-  </si>
-  <si>
-    <t>Campo para País de Residencia</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/CodPais</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contacto de la Organización para ciertos propósitos</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>El tipo de contacto</t>
-  </si>
-  <si>
-    <t>El propósito mediante el cual el contacto puede ser alcanzado</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>Códigos del propósito del contacto, HL7 FHIR</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>Nombre asociado al contacto</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Detalles de contacto de la Organización</t>
-  </si>
-  <si>
-    <t>Detalles del contacto de la Organización comunmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.system</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.value</t>
-  </si>
-  <si>
-    <t>Dato del contato del paciente descrito</t>
-  </si>
-  <si>
-    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile</t>
-  </si>
-  <si>
-    <t>Propósito para el contacto que se ha definido</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.rank</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom.period</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
   </si>
   <si>
     <t>Visiting or postal addresses for the contact</t>
@@ -1801,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1820,7 +1532,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1829,7 +1541,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
@@ -1845,7 +1557,7 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.79296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
@@ -5540,19 +5252,21 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5600,7 +5314,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5612,16 +5326,16 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5629,14 +5343,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5646,7 +5360,7 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5655,18 +5369,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5702,19 +5418,19 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5726,13 +5442,13 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5743,10 +5459,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5760,29 +5476,25 @@
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5794,7 +5506,7 @@
         <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>77</v>
@@ -5806,13 +5518,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5830,7 +5542,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5842,16 +5554,16 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5859,21 +5571,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5882,19 +5594,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5908,7 +5620,7 @@
         <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>77</v>
@@ -5920,13 +5632,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5944,25 +5656,25 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5973,45 +5685,45 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>142</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6024,7 +5736,7 @@
         <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>77</v>
@@ -6060,25 +5772,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6089,10 +5801,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6103,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>88</v>
@@ -6112,19 +5824,21 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6136,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6148,13 +5862,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6172,13 +5886,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6187,13 +5901,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6201,14 +5915,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6224,19 +5938,21 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6248,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6260,13 +5976,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6284,7 +6000,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6299,13 +6015,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6313,21 +6029,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>88</v>
@@ -6336,21 +6052,21 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6362,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6374,13 +6090,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6398,13 +6114,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6413,10 +6129,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6427,14 +6143,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6444,22 +6160,22 @@
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6486,13 +6202,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6510,7 +6226,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>386</v>
+        <v>157</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6522,16 +6238,16 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>388</v>
+        <v>158</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6539,21 +6255,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>391</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6562,18 +6278,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>392</v>
+        <v>134</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6586,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6610,40 +6328,40 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6651,10 +6369,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6668,7 +6386,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6677,17 +6395,15 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6716,7 +6432,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>402</v>
+        <v>273</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6450,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6743,19 +6459,19 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>404</v>
+        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>405</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6763,10 +6479,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6789,17 +6505,19 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6530,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6848,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6863,13 +6581,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>413</v>
+        <v>285</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6877,10 +6595,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6897,23 +6615,25 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6938,13 +6658,11 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6962,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6977,13 +6695,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>418</v>
+        <v>295</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6991,10 +6709,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7005,32 +6723,30 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>420</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>421</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7078,13 +6794,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>419</v>
+        <v>302</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7093,10 +6809,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7107,10 +6823,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7130,16 +6846,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7190,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7202,16 +6918,16 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7219,21 +6935,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7245,18 +6961,18 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7304,25 +7020,25 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7333,14 +7049,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7353,25 +7069,23 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7420,7 +7134,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7432,1385 +7146,23 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y55" s="2"/>
-      <c r="Z55" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y57" s="2"/>
-      <c r="Z57" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8820,7 +7172,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T17:44:35-04:00</t>
+    <t>2024-06-04T10:43:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
